--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
+    <col min="4" max="4" width="13.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29088893444644204</v>
+        <v>-0.027453640236539678</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29048506641910815</v>
+        <v>-0.17538651395380644</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00029527582854534638</v>
+        <v>-0.14346988549917844</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.1468462291253082e-05</v>
+        <v>0.0022260594027113667</v>
       </c>
       <c r="F3" s="0">
-        <v>-7.0558422791033748e-05</v>
+        <v>-0.0069869181778924646</v>
       </c>
       <c r="G3" s="0">
-        <v>-2.6587031686509266e-05</v>
+        <v>0.0049731655919498198</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.7843258193551412e-06</v>
+        <v>0.0009785505357464302</v>
       </c>
       <c r="I3" s="0">
-        <v>1.6902794988974514e-06</v>
+        <v>-0.0053666852130939214</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1.1576430070103783e-07</v>
+        <v>-0.00028716035750955826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30969522822966666</v>
+        <v>0.2619534463774017</v>
       </c>
       <c r="C4" s="0">
-        <v>0.019200775962083888</v>
+        <v>0.38324264429458732</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.4698415932539117e-08</v>
+        <v>0.00029173312421796813</v>
       </c>
       <c r="F4" s="0">
-        <v>1.0787570062724614e-05</v>
+        <v>0.00027280397029456378</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.5684981300642994e-08</v>
+        <v>-0.0085638320063497787</v>
       </c>
       <c r="I4" s="0">
-        <v>-1.3073290407115738e-06</v>
+        <v>-0.012457159042645783</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.9126244370159463e-08</v>
+        <v>0.07782804812011028</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.4882905796653745e-08</v>
+        <v>-0.003274278129006436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31563510941998635</v>
+        <v>0.3885243237249657</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0060059792743958271</v>
+        <v>0.15517823334739048</v>
       </c>
       <c r="E5" s="0">
-        <v>3.100249946585197e-05</v>
+        <v>0.032199662428323075</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00022404277781178751</v>
+        <v>-0.065372498343534258</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00013769122265604706</v>
+        <v>-0.0028564444731699629</v>
       </c>
       <c r="H5" s="0">
-        <v>4.0030861291987536e-07</v>
+        <v>-0.008312459060823587</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00045873302392643973</v>
+        <v>-0.0038627689753009224</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-5.0186869632318221e-07</v>
+        <v>0.019597152424679187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.27584806042409571</v>
+        <v>0.33295028848259711</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.033280158507145677</v>
+        <v>-0.039519119316318671</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.3175367162491298e-07</v>
+        <v>0.00030075667392709306</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00012788682467874848</v>
+        <v>-0.0056683014864927321</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.5790857711147283e-05</v>
+        <v>-0.010799597797163009</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.006313496443447494</v>
+        <v>-0.00019114735699141786</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.5188342078475969e-07</v>
+        <v>0.00030337404067015683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.21132865274524112</v>
+        <v>0.37493853858297543</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.062005537933711989</v>
+        <v>0.097695189619100301</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00059907485398374592</v>
+        <v>-0.022636060685363526</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00062637702490589799</v>
+        <v>-0.013928221962715348</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00058536764061556086</v>
+        <v>0.0046080546135604267</v>
       </c>
       <c r="H7" s="0">
-        <v>1.4204955895381463e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0018996539147493254</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>1.1663451985444162e-05</v>
+        <v>-0.023750711484203546</v>
       </c>
     </row>
     <row r="8">
